--- a/src/analysis_examples/circadipy/results_circadipy/sine_10/cosinor_per_day_fixed_period_5_sine_10_.xlsx
+++ b/src/analysis_examples/circadipy/results_circadipy/sine_10/cosinor_per_day_fixed_period_5_sine_10_.xlsx
@@ -581,7 +581,7 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>24.26000000000035</v>
+        <v>24.27000000000035</v>
       </c>
       <c r="G2" t="n">
         <v>1</v>
@@ -595,11 +595,11 @@
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="n">
-        <v>54.14687457087366</v>
+        <v>49.45616252149362</v>
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>[46.449314322754, 61.84443481899333]</t>
+          <t>[43.4965329382516, 55.41579210473565]</t>
         </is>
       </c>
       <c r="N2" t="n">
@@ -613,7 +613,7 @@
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>[1.4151318259413488, 1.7421845146033474]</t>
+          <t>[1.452868674633117, 1.7044476659115793]</t>
         </is>
       </c>
       <c r="R2" t="n">
@@ -623,11 +623,11 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>54.74152440645359</v>
+        <v>49.1351299803589</v>
       </c>
       <c r="U2" t="inlineStr">
         <is>
-          <t>[49.47853166847187, 60.004517144435304]</t>
+          <t>[45.068680752881534, 53.20157920783626]</t>
         </is>
       </c>
       <c r="V2" t="n">
@@ -637,13 +637,13 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>18.16464464464491</v>
+        <v>18.1721321321324</v>
       </c>
       <c r="Y2" t="n">
-        <v>17.53325325325351</v>
+        <v>17.6862462462465</v>
       </c>
       <c r="Z2" t="n">
-        <v>18.79603603603631</v>
+        <v>18.65801801801829</v>
       </c>
     </row>
     <row r="3">
@@ -667,39 +667,39 @@
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>24.26000000000035</v>
+        <v>24.27000000000035</v>
       </c>
       <c r="G3" t="n">
         <v>1</v>
       </c>
       <c r="H3" t="n">
-        <v>1.110223024625157e-16</v>
+        <v>1.953992523340276e-14</v>
       </c>
       <c r="I3" t="n">
-        <v>1.110223024625157e-16</v>
+        <v>1.953992523340276e-14</v>
       </c>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="n">
-        <v>43.89759247491131</v>
+        <v>41.53933229460298</v>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>[36.41862997202278, 51.376554977799834]</t>
+          <t>[33.32017467636429, 49.75848991284167]</t>
         </is>
       </c>
       <c r="N3" t="n">
-        <v>1.998401444325282e-15</v>
+        <v>2.973177259946169e-13</v>
       </c>
       <c r="O3" t="n">
-        <v>1.998401444325282e-15</v>
+        <v>2.973177259946169e-13</v>
       </c>
       <c r="P3" t="n">
-        <v>1.402552876377426</v>
+        <v>1.440289725069195</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>[1.2138686329185786, 1.591237119836273]</t>
+          <t>[1.2264475824825025, 1.6541318676558872]</t>
         </is>
       </c>
       <c r="R3" t="n">
@@ -709,11 +709,11 @@
         <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>52.58176045194102</v>
+        <v>53.37761169473701</v>
       </c>
       <c r="U3" t="inlineStr">
         <is>
-          <t>[48.00332228495041, 57.16019861893164]</t>
+          <t>[48.32259192553833, 58.43263146393569]</t>
         </is>
       </c>
       <c r="V3" t="n">
@@ -723,13 +723,13 @@
         <v>0</v>
       </c>
       <c r="X3" t="n">
-        <v>18.84460460460487</v>
+        <v>18.70660660660688</v>
       </c>
       <c r="Y3" t="n">
-        <v>18.11607607607633</v>
+        <v>17.88060060060086</v>
       </c>
       <c r="Z3" t="n">
-        <v>19.57313313313342</v>
+        <v>19.5326126126129</v>
       </c>
     </row>
     <row r="4">
@@ -753,39 +753,39 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>24.26000000000035</v>
+        <v>24.27000000000035</v>
       </c>
       <c r="G4" t="n">
         <v>1</v>
       </c>
       <c r="H4" t="n">
-        <v>1.332267629550188e-15</v>
+        <v>1.110223024625157e-16</v>
       </c>
       <c r="I4" t="n">
-        <v>1.332267629550188e-15</v>
+        <v>1.110223024625157e-16</v>
       </c>
       <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
       <c r="L4" t="n">
-        <v>45.81193762106187</v>
+        <v>46.56286721140549</v>
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>[38.07412115386164, 53.549754088262105]</t>
+          <t>[39.483302797839926, 53.64243162497105]</t>
         </is>
       </c>
       <c r="N4" t="n">
-        <v>1.554312234475219e-15</v>
+        <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>1.554312234475219e-15</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>1.528342372016656</v>
+        <v>1.327079178993888</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>[1.3396581285578097, 1.7170266154755023]</t>
+          <t>[1.1761317842268104, 1.4780265737609648]</t>
         </is>
       </c>
       <c r="R4" t="n">
@@ -795,11 +795,11 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>47.86207132023559</v>
+        <v>50.56998833380036</v>
       </c>
       <c r="U4" t="inlineStr">
         <is>
-          <t>[42.69687250573858, 53.0272701347326]</t>
+          <t>[46.352218089981385, 54.787758577619336]</t>
         </is>
       </c>
       <c r="V4" t="n">
@@ -809,13 +809,13 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>18.35891891891919</v>
+        <v>19.14390390390418</v>
       </c>
       <c r="Y4" t="n">
-        <v>17.63039039039065</v>
+        <v>18.56084084084111</v>
       </c>
       <c r="Z4" t="n">
-        <v>19.08744744744773</v>
+        <v>19.72696696696725</v>
       </c>
     </row>
     <row r="5">
@@ -839,53 +839,53 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>24.26000000000035</v>
+        <v>24.27000000000035</v>
       </c>
       <c r="G5" t="n">
         <v>1</v>
       </c>
       <c r="H5" t="n">
-        <v>1.110223024625157e-16</v>
+        <v>3.254840841293571e-12</v>
       </c>
       <c r="I5" t="n">
-        <v>1.110223024625157e-16</v>
+        <v>3.254840841293571e-12</v>
       </c>
       <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
       <c r="L5" t="n">
-        <v>46.95091324989288</v>
+        <v>42.65711143501091</v>
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>[39.161595263293606, 54.740231236492164]</t>
+          <t>[33.47521971929032, 51.8390031507315]</t>
         </is>
       </c>
       <c r="N5" t="n">
-        <v>8.881784197001252e-16</v>
+        <v>3.996802888650564e-12</v>
       </c>
       <c r="O5" t="n">
-        <v>8.881784197001252e-16</v>
+        <v>3.996802888650564e-12</v>
       </c>
       <c r="P5" t="n">
-        <v>1.276763380738195</v>
+        <v>1.540921321580579</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>[1.1132370364071944, 1.4402897250691948]</t>
+          <t>[1.2893423303021176, 1.7925003128590404]</t>
         </is>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>4.440892098500626e-16</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>4.440892098500626e-16</v>
       </c>
       <c r="T5" t="n">
-        <v>53.96337581097132</v>
+        <v>50.77131705742481</v>
       </c>
       <c r="U5" t="inlineStr">
         <is>
-          <t>[49.54847700329821, 58.37827461864443]</t>
+          <t>[44.69479351666645, 56.84784059818317]</t>
         </is>
       </c>
       <c r="V5" t="n">
@@ -895,13 +895,13 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>19.33029029029057</v>
+        <v>18.31789789789817</v>
       </c>
       <c r="Y5" t="n">
-        <v>18.69889889889917</v>
+        <v>17.34612612612638</v>
       </c>
       <c r="Z5" t="n">
-        <v>19.96168168168197</v>
+        <v>19.28966966966995</v>
       </c>
     </row>
     <row r="6">
@@ -925,53 +925,53 @@
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>24.26000000000035</v>
+        <v>24.27000000000035</v>
       </c>
       <c r="G6" t="n">
         <v>1</v>
       </c>
       <c r="H6" t="n">
-        <v>6.661338147750939e-16</v>
+        <v>2.997602166487923e-15</v>
       </c>
       <c r="I6" t="n">
-        <v>6.661338147750939e-16</v>
+        <v>2.997602166487923e-15</v>
       </c>
       <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
       <c r="L6" t="n">
-        <v>42.51184346075171</v>
+        <v>49.91893646515657</v>
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>[34.04073577563469, 50.982951145868725]</t>
+          <t>[39.87014511932515, 59.96772781098799]</t>
         </is>
       </c>
       <c r="N6" t="n">
-        <v>3.714806240395774e-13</v>
+        <v>5.113687251423471e-13</v>
       </c>
       <c r="O6" t="n">
-        <v>3.714806240395774e-13</v>
+        <v>5.113687251423471e-13</v>
       </c>
       <c r="P6" t="n">
-        <v>1.201289683354656</v>
+        <v>1.276763380738194</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>[0.9874475407679633, 1.415131825941348]</t>
+          <t>[1.0629212381515014, 1.490605523324886]</t>
         </is>
       </c>
       <c r="R6" t="n">
-        <v>9.325873406851315e-15</v>
+        <v>1.110223024625157e-15</v>
       </c>
       <c r="S6" t="n">
-        <v>9.325873406851315e-15</v>
+        <v>1.110223024625157e-15</v>
       </c>
       <c r="T6" t="n">
-        <v>47.91680425832487</v>
+        <v>51.98900337015387</v>
       </c>
       <c r="U6" t="inlineStr">
         <is>
-          <t>[43.22419469617529, 52.60941382047446]</t>
+          <t>[46.240745453265326, 57.73726128704241]</t>
         </is>
       </c>
       <c r="V6" t="n">
@@ -981,13 +981,13 @@
         <v>0</v>
       </c>
       <c r="X6" t="n">
-        <v>19.62170170170199</v>
+        <v>19.33825825825854</v>
       </c>
       <c r="Y6" t="n">
-        <v>18.79603603603631</v>
+        <v>18.51225225225252</v>
       </c>
       <c r="Z6" t="n">
-        <v>20.44736736736767</v>
+        <v>20.16426426426456</v>
       </c>
     </row>
     <row r="7">
@@ -1011,53 +1011,53 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>24.26000000000035</v>
+        <v>24.27000000000035</v>
       </c>
       <c r="G7" t="n">
         <v>1</v>
       </c>
       <c r="H7" t="n">
-        <v>2.220446049250313e-16</v>
+        <v>2.331468351712829e-15</v>
       </c>
       <c r="I7" t="n">
-        <v>2.220446049250313e-16</v>
+        <v>2.331468351712829e-15</v>
       </c>
       <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
       <c r="L7" t="n">
-        <v>50.55175260316943</v>
+        <v>46.40807511581941</v>
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>[41.4268902030952, 59.676615003243654]</t>
+          <t>[37.12401165657858, 55.692138575060234]</t>
         </is>
       </c>
       <c r="N7" t="n">
-        <v>1.509903313490213e-14</v>
+        <v>4.205524817280093e-13</v>
       </c>
       <c r="O7" t="n">
-        <v>1.509903313490213e-14</v>
+        <v>4.205524817280093e-13</v>
       </c>
       <c r="P7" t="n">
-        <v>1.301921279866041</v>
+        <v>1.213868632918579</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>[1.1006580868432714, 1.50318447288881]</t>
+          <t>[0.9874475407679633, 1.440289725069194]</t>
         </is>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>4.440892098500626e-14</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>4.440892098500626e-14</v>
       </c>
       <c r="T7" t="n">
-        <v>51.257441404518</v>
+        <v>49.39786271517927</v>
       </c>
       <c r="U7" t="inlineStr">
         <is>
-          <t>[45.82592903859235, 56.688953770443646]</t>
+          <t>[44.08943411276266, 54.70629131759587]</t>
         </is>
       </c>
       <c r="V7" t="n">
@@ -1067,13 +1067,13 @@
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>19.23315315315343</v>
+        <v>19.58120120120149</v>
       </c>
       <c r="Y7" t="n">
-        <v>18.45605605605632</v>
+        <v>18.70660660660688</v>
       </c>
       <c r="Z7" t="n">
-        <v>20.01025025025054</v>
+        <v>20.45579579579609</v>
       </c>
     </row>
     <row r="8">
@@ -1097,53 +1097,53 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>24.26000000000035</v>
+        <v>24.27000000000035</v>
       </c>
       <c r="G8" t="n">
         <v>1</v>
       </c>
       <c r="H8" t="n">
-        <v>7.771561172376096e-16</v>
+        <v>1.110223024625157e-16</v>
       </c>
       <c r="I8" t="n">
-        <v>7.771561172376096e-16</v>
+        <v>1.110223024625157e-16</v>
       </c>
       <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
       <c r="L8" t="n">
-        <v>48.3415990495749</v>
+        <v>47.10321487864935</v>
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>[38.78421272582019, 57.898985373329616]</t>
+          <t>[38.03817095094767, 56.168258806351034]</t>
         </is>
       </c>
       <c r="N8" t="n">
-        <v>2.897682094271659e-13</v>
+        <v>1.225686219186173e-13</v>
       </c>
       <c r="O8" t="n">
-        <v>2.897682094271659e-13</v>
+        <v>1.225686219186173e-13</v>
       </c>
       <c r="P8" t="n">
-        <v>1.163552834662886</v>
+        <v>1.150973885098963</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>[0.9497106920761933, 1.377394977249578]</t>
+          <t>[0.9622896416401172, 1.3396581285578097]</t>
         </is>
       </c>
       <c r="R8" t="n">
-        <v>2.731148640577885e-14</v>
+        <v>4.440892098500626e-16</v>
       </c>
       <c r="S8" t="n">
-        <v>2.731148640577885e-14</v>
+        <v>4.440892098500626e-16</v>
       </c>
       <c r="T8" t="n">
-        <v>54.14746268707336</v>
+        <v>51.7406319950788</v>
       </c>
       <c r="U8" t="inlineStr">
         <is>
-          <t>[48.79918762703226, 59.495737747114454]</t>
+          <t>[46.88174949445876, 56.59951449569884]</t>
         </is>
       </c>
       <c r="V8" t="n">
@@ -1153,13 +1153,13 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>19.7674074074077</v>
+        <v>19.82414414414443</v>
       </c>
       <c r="Y8" t="n">
-        <v>18.94174174174202</v>
+        <v>19.0953153153156</v>
       </c>
       <c r="Z8" t="n">
-        <v>20.59307307307338</v>
+        <v>20.55297297297327</v>
       </c>
     </row>
     <row r="9">
@@ -1183,53 +1183,53 @@
         <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>24.26000000000035</v>
+        <v>24.27000000000035</v>
       </c>
       <c r="G9" t="n">
         <v>1</v>
       </c>
       <c r="H9" t="n">
-        <v>1.288857909287344e-12</v>
+        <v>1.110223024625157e-16</v>
       </c>
       <c r="I9" t="n">
-        <v>1.288857909287344e-12</v>
+        <v>1.110223024625157e-16</v>
       </c>
       <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
       <c r="L9" t="n">
-        <v>42.7476696291742</v>
+        <v>51.85001410810579</v>
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>[31.960921861078347, 53.53441739727006]</t>
+          <t>[42.6465982911231, 61.05342992508848]</t>
         </is>
       </c>
       <c r="N9" t="n">
-        <v>3.663240821794034e-10</v>
+        <v>8.659739592076221e-15</v>
       </c>
       <c r="O9" t="n">
-        <v>3.663240821794034e-10</v>
+        <v>8.659739592076221e-15</v>
       </c>
       <c r="P9" t="n">
-        <v>1.088079137279348</v>
+        <v>1.037763339023655</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>[0.823921196436963, 1.3522370781217337]</t>
+          <t>[0.8490790955648082, 1.2264475824825025]</t>
         </is>
       </c>
       <c r="R9" t="n">
-        <v>1.282618455888951e-10</v>
+        <v>1.909583602355269e-14</v>
       </c>
       <c r="S9" t="n">
-        <v>1.282618455888951e-10</v>
+        <v>1.909583602355269e-14</v>
       </c>
       <c r="T9" t="n">
-        <v>56.54651558291288</v>
+        <v>51.19863822825069</v>
       </c>
       <c r="U9" t="inlineStr">
         <is>
-          <t>[50.6552421940375, 62.437788971788265]</t>
+          <t>[46.31017601308663, 56.087100443414755]</t>
         </is>
       </c>
       <c r="V9" t="n">
@@ -1239,13 +1239,13 @@
         <v>0</v>
       </c>
       <c r="X9" t="n">
-        <v>20.05881881881911</v>
+        <v>20.26144144144174</v>
       </c>
       <c r="Y9" t="n">
-        <v>19.03887887887915</v>
+        <v>19.5326126126129</v>
       </c>
       <c r="Z9" t="n">
-        <v>21.07875875875907</v>
+        <v>20.99027027027058</v>
       </c>
     </row>
     <row r="10">
@@ -1269,53 +1269,53 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>24.26000000000035</v>
+        <v>24.27000000000035</v>
       </c>
       <c r="G10" t="n">
         <v>1</v>
       </c>
       <c r="H10" t="n">
-        <v>6.661338147750939e-16</v>
+        <v>1.110223024625157e-16</v>
       </c>
       <c r="I10" t="n">
-        <v>6.661338147750939e-16</v>
+        <v>1.110223024625157e-16</v>
       </c>
       <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
       <c r="L10" t="n">
-        <v>47.25847027484247</v>
+        <v>51.32625931965478</v>
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>[37.314252348649404, 57.20268820103554]</t>
+          <t>[41.448307180484306, 61.204211458825256]</t>
         </is>
       </c>
       <c r="N10" t="n">
-        <v>2.011724120620784e-12</v>
+        <v>1.225686219186173e-13</v>
       </c>
       <c r="O10" t="n">
-        <v>2.011724120620784e-12</v>
+        <v>1.225686219186173e-13</v>
       </c>
       <c r="P10" t="n">
-        <v>0.9497106920761933</v>
+        <v>1.000026490331886</v>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
-          <t>[0.735868549489501, 1.1635528346628856]</t>
+          <t>[0.798763297309117, 1.2012896833546556]</t>
         </is>
       </c>
       <c r="R10" t="n">
-        <v>1.515543246455309e-11</v>
+        <v>5.078160114635466e-13</v>
       </c>
       <c r="S10" t="n">
-        <v>1.515543246455309e-11</v>
+        <v>5.078160114635466e-13</v>
       </c>
       <c r="T10" t="n">
-        <v>52.58615842966105</v>
+        <v>50.02367079734859</v>
       </c>
       <c r="U10" t="inlineStr">
         <is>
-          <t>[47.39171621126731, 57.7806006480548]</t>
+          <t>[44.88685310329981, 55.16048849139737]</t>
         </is>
       </c>
       <c r="V10" t="n">
@@ -1325,13 +1325,13 @@
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>20.59307307307337</v>
+        <v>20.40720720720751</v>
       </c>
       <c r="Y10" t="n">
-        <v>19.7674074074077</v>
+        <v>19.62978978979008</v>
       </c>
       <c r="Z10" t="n">
-        <v>21.41873873873905</v>
+        <v>21.18462462462493</v>
       </c>
     </row>
     <row r="11">
@@ -1355,53 +1355,53 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>25.11000000000049</v>
+        <v>24.94000000000046</v>
       </c>
       <c r="G11" t="n">
         <v>1</v>
       </c>
       <c r="H11" t="n">
-        <v>8.881784197001252e-16</v>
+        <v>4.440892098500626e-16</v>
       </c>
       <c r="I11" t="n">
-        <v>8.881784197001252e-16</v>
+        <v>4.440892098500626e-16</v>
       </c>
       <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr"/>
       <c r="L11" t="n">
-        <v>46.92243215655875</v>
+        <v>47.44299919457604</v>
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>[36.77136079056808, 57.073503522549416]</t>
+          <t>[37.61559040172416, 57.270407987427916]</t>
         </is>
       </c>
       <c r="N11" t="n">
-        <v>4.649391982525231e-12</v>
+        <v>1.24322774297525e-12</v>
       </c>
       <c r="O11" t="n">
-        <v>4.649391982525231e-12</v>
+        <v>1.24322774297525e-12</v>
       </c>
       <c r="P11" t="n">
-        <v>0.8239211964369622</v>
+        <v>0.6603948521059619</v>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
-          <t>[0.610079053850269, 1.0377633390236554]</t>
+          <t>[0.44655270951926873, 0.8742369946926551]</t>
         </is>
       </c>
       <c r="R11" t="n">
-        <v>7.716325356454945e-10</v>
+        <v>1.470830182093152e-07</v>
       </c>
       <c r="S11" t="n">
-        <v>7.716325356454945e-10</v>
+        <v>1.470830182093152e-07</v>
       </c>
       <c r="T11" t="n">
-        <v>55.90408189799682</v>
+        <v>47.98123999025046</v>
       </c>
       <c r="U11" t="inlineStr">
         <is>
-          <t>[50.731243858795644, 61.07691993719799]</t>
+          <t>[42.87321647806534, 53.08926350243558]</t>
         </is>
       </c>
       <c r="V11" t="n">
@@ -1411,13 +1411,13 @@
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>21.81729729729772</v>
+        <v>22.31867867867909</v>
       </c>
       <c r="Y11" t="n">
-        <v>20.96270270270311</v>
+        <v>21.46986986987027</v>
       </c>
       <c r="Z11" t="n">
-        <v>22.67189189189233</v>
+        <v>23.16748748748792</v>
       </c>
     </row>
     <row r="12">
@@ -1441,53 +1441,53 @@
         <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>25.11000000000049</v>
+        <v>24.94000000000046</v>
       </c>
       <c r="G12" t="n">
         <v>1</v>
       </c>
       <c r="H12" t="n">
-        <v>1.110223024625157e-16</v>
+        <v>1.899591595133643e-13</v>
       </c>
       <c r="I12" t="n">
-        <v>1.110223024625157e-16</v>
+        <v>1.899591595133643e-13</v>
       </c>
       <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr"/>
       <c r="L12" t="n">
-        <v>48.49380170479782</v>
+        <v>40.37679161317885</v>
       </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>[39.996973811728985, 56.990629597866665]</t>
+          <t>[30.86147178904799, 49.892111437309715]</t>
         </is>
       </c>
       <c r="N12" t="n">
-        <v>5.551115123125783e-15</v>
+        <v>5.597300400950189e-11</v>
       </c>
       <c r="O12" t="n">
-        <v>5.551115123125783e-15</v>
+        <v>5.597300400950189e-11</v>
       </c>
       <c r="P12" t="n">
-        <v>0.5220264069028087</v>
+        <v>0.5094474573388856</v>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
-          <t>[0.3333421634439615, 0.7107106503616558]</t>
+          <t>[0.27044741562434726, 0.748447499053424]</t>
         </is>
       </c>
       <c r="R12" t="n">
-        <v>1.340654562920207e-06</v>
+        <v>9.255540258745754e-05</v>
       </c>
       <c r="S12" t="n">
-        <v>1.340654562920207e-06</v>
+        <v>9.255540258745754e-05</v>
       </c>
       <c r="T12" t="n">
-        <v>57.59964487277396</v>
+        <v>49.76861195916099</v>
       </c>
       <c r="U12" t="inlineStr">
         <is>
-          <t>[53.03661796140806, 62.16267178413985]</t>
+          <t>[44.61145625633606, 54.92576766198592]</t>
         </is>
       </c>
       <c r="V12" t="n">
@@ -1497,13 +1497,13 @@
         <v>0</v>
       </c>
       <c r="X12" t="n">
-        <v>23.02378378378423</v>
+        <v>22.91783783783826</v>
       </c>
       <c r="Y12" t="n">
-        <v>22.26972972973016</v>
+        <v>21.96916916916958</v>
       </c>
       <c r="Z12" t="n">
-        <v>23.7778378378383</v>
+        <v>23.86650650650694</v>
       </c>
     </row>
     <row r="13">
@@ -1527,53 +1527,53 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>25.11000000000049</v>
+        <v>24.94000000000046</v>
       </c>
       <c r="G13" t="n">
         <v>1</v>
       </c>
       <c r="H13" t="n">
-        <v>2.220446049250313e-15</v>
+        <v>1.110223024625157e-16</v>
       </c>
       <c r="I13" t="n">
-        <v>2.220446049250313e-15</v>
+        <v>1.110223024625157e-16</v>
       </c>
       <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr"/>
       <c r="L13" t="n">
-        <v>47.18430677226742</v>
+        <v>56.96462881834416</v>
       </c>
       <c r="M13" t="inlineStr">
         <is>
-          <t>[38.11261146139422, 56.256002083140615]</t>
+          <t>[48.536351320950544, 65.39290631573778]</t>
         </is>
       </c>
       <c r="N13" t="n">
-        <v>1.187938636348917e-13</v>
+        <v>0</v>
       </c>
       <c r="O13" t="n">
-        <v>1.187938636348917e-13</v>
+        <v>0</v>
       </c>
       <c r="P13" t="n">
-        <v>0.2578684660604234</v>
+        <v>0.2956053147521924</v>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
-          <t>[0.05660527303765317, 0.45913165908319353]</t>
+          <t>[0.14465791998511524, 0.4465527095192696]</t>
         </is>
       </c>
       <c r="R13" t="n">
-        <v>0.01319660456670135</v>
+        <v>0.0002772963716184407</v>
       </c>
       <c r="S13" t="n">
-        <v>0.01319660456670135</v>
+        <v>0.0002772963716184407</v>
       </c>
       <c r="T13" t="n">
-        <v>48.67343739365406</v>
+        <v>54.25401673678576</v>
       </c>
       <c r="U13" t="inlineStr">
         <is>
-          <t>[43.42785382476743, 53.91902096254069]</t>
+          <t>[49.40118169307578, 59.10685178049575]</t>
         </is>
       </c>
       <c r="V13" t="n">
@@ -1583,13 +1583,13 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>24.07945945945993</v>
+        <v>23.76664664664709</v>
       </c>
       <c r="Y13" t="n">
-        <v>23.27513513513559</v>
+        <v>23.16748748748791</v>
       </c>
       <c r="Z13" t="n">
-        <v>24.88378378378427</v>
+        <v>24.36580580580626</v>
       </c>
     </row>
     <row r="14">
@@ -1613,53 +1613,53 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>25.11000000000049</v>
+        <v>24.94000000000046</v>
       </c>
       <c r="G14" t="n">
         <v>1</v>
       </c>
       <c r="H14" t="n">
-        <v>1.221245327087672e-15</v>
+        <v>1.110223024625157e-16</v>
       </c>
       <c r="I14" t="n">
-        <v>1.221245327087672e-15</v>
+        <v>1.110223024625157e-16</v>
       </c>
       <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr"/>
       <c r="L14" t="n">
-        <v>41.43921593887799</v>
+        <v>43.33593954172179</v>
       </c>
       <c r="M14" t="inlineStr">
         <is>
-          <t>[34.2355452406291, 48.642886637126885]</t>
+          <t>[36.87466984903015, 49.79720923441342]</t>
         </is>
       </c>
       <c r="N14" t="n">
-        <v>4.218847493575595e-15</v>
+        <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>4.218847493575595e-15</v>
+        <v>0</v>
       </c>
       <c r="P14" t="n">
-        <v>0.1446579199851161</v>
+        <v>-0.01257894956392303</v>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
-          <t>[-0.03144737390980623, 0.3207632138800385]</t>
+          <t>[-0.17610529389492324, 0.1509473947670772]</t>
         </is>
       </c>
       <c r="R14" t="n">
-        <v>0.104997309621546</v>
+        <v>0.8775685323512714</v>
       </c>
       <c r="S14" t="n">
-        <v>0.104997309621546</v>
+        <v>0.8775685323512714</v>
       </c>
       <c r="T14" t="n">
-        <v>45.69970118747919</v>
+        <v>51.22348624123027</v>
       </c>
       <c r="U14" t="inlineStr">
         <is>
-          <t>[41.17610687691272, 50.223295498045665]</t>
+          <t>[46.94449792143433, 55.502474561026204]</t>
         </is>
       </c>
       <c r="V14" t="n">
@@ -1669,13 +1669,13 @@
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>24.53189189189236</v>
+        <v>0.04992992992993095</v>
       </c>
       <c r="Y14" t="n">
-        <v>23.82810810810857</v>
+        <v>-0.59915915915917</v>
       </c>
       <c r="Z14" t="n">
-        <v>25.23567567567616</v>
+        <v>0.6990190190190319</v>
       </c>
     </row>
     <row r="15">
@@ -1699,53 +1699,53 @@
         <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>25.11000000000049</v>
+        <v>24.94000000000046</v>
       </c>
       <c r="G15" t="n">
         <v>1</v>
       </c>
       <c r="H15" t="n">
-        <v>4.007905118896815e-14</v>
+        <v>1.110223024625157e-16</v>
       </c>
       <c r="I15" t="n">
-        <v>4.007905118896815e-14</v>
+        <v>1.110223024625157e-16</v>
       </c>
       <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr"/>
       <c r="L15" t="n">
-        <v>47.81974810401151</v>
+        <v>41.38817279902644</v>
       </c>
       <c r="M15" t="inlineStr">
         <is>
-          <t>[37.46657114438994, 58.17292506363308]</t>
+          <t>[34.10523893032896, 48.671106667723926]</t>
         </is>
       </c>
       <c r="N15" t="n">
-        <v>4.757971794333571e-12</v>
+        <v>6.439293542825908e-15</v>
       </c>
       <c r="O15" t="n">
-        <v>4.757971794333571e-12</v>
+        <v>6.439293542825908e-15</v>
       </c>
       <c r="P15" t="n">
-        <v>-0.3144737390980774</v>
+        <v>-0.2893158399702314</v>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
-          <t>[-0.5408948312486928, -0.08805264694746207]</t>
+          <t>[-0.4780000834290776, -0.10063159651138509]</t>
         </is>
       </c>
       <c r="R15" t="n">
-        <v>0.007554863006441703</v>
+        <v>0.003443520907480568</v>
       </c>
       <c r="S15" t="n">
-        <v>0.007554863006441703</v>
+        <v>0.003443520907480568</v>
       </c>
       <c r="T15" t="n">
-        <v>55.27891474998464</v>
+        <v>47.73004474140032</v>
       </c>
       <c r="U15" t="inlineStr">
         <is>
-          <t>[49.43013010814331, 61.12769939182596]</t>
+          <t>[43.55214972992714, 51.9079397528735]</t>
         </is>
       </c>
       <c r="V15" t="n">
@@ -1755,13 +1755,13 @@
         <v>0</v>
       </c>
       <c r="X15" t="n">
-        <v>1.256756756756779</v>
+        <v>1.148388388388408</v>
       </c>
       <c r="Y15" t="n">
-        <v>0.3518918918918984</v>
+        <v>0.3994394394394463</v>
       </c>
       <c r="Z15" t="n">
-        <v>2.16162162162166</v>
+        <v>1.89733733733737</v>
       </c>
     </row>
     <row r="16">
@@ -1785,53 +1785,53 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>25.11000000000049</v>
+        <v>24.94000000000046</v>
       </c>
       <c r="G16" t="n">
         <v>1</v>
       </c>
       <c r="H16" t="n">
-        <v>2.220446049250313e-16</v>
+        <v>1.676436767183986e-14</v>
       </c>
       <c r="I16" t="n">
-        <v>2.220446049250313e-16</v>
+        <v>1.676436767183986e-14</v>
       </c>
       <c r="J16" t="inlineStr"/>
       <c r="K16" t="inlineStr"/>
       <c r="L16" t="n">
-        <v>48.15786239215726</v>
+        <v>44.16957621778285</v>
       </c>
       <c r="M16" t="inlineStr">
         <is>
-          <t>[38.13390118742455, 58.18182359688996]</t>
+          <t>[34.466673463934825, 53.87247897163087]</t>
         </is>
       </c>
       <c r="N16" t="n">
-        <v>1.442845842802853e-12</v>
+        <v>7.335243523698409e-12</v>
       </c>
       <c r="O16" t="n">
-        <v>1.442845842802853e-12</v>
+        <v>7.335243523698409e-12</v>
       </c>
       <c r="P16" t="n">
-        <v>-0.5786316799404627</v>
+        <v>-0.4528421843012316</v>
       </c>
       <c r="Q16" t="inlineStr">
         <is>
-          <t>[-0.779894872963232, -0.3773684869176934]</t>
+          <t>[-0.6792632764518469, -0.22642109215061623]</t>
         </is>
       </c>
       <c r="R16" t="n">
-        <v>6.382566648532872e-07</v>
+        <v>0.0002136444856204456</v>
       </c>
       <c r="S16" t="n">
-        <v>6.382566648532872e-07</v>
+        <v>0.0002136444856204456</v>
       </c>
       <c r="T16" t="n">
-        <v>50.06398590349816</v>
+        <v>47.72517240685444</v>
       </c>
       <c r="U16" t="inlineStr">
         <is>
-          <t>[44.953405085556625, 55.17456672143969]</t>
+          <t>[42.427389312287374, 53.02295550142151]</t>
         </is>
       </c>
       <c r="V16" t="n">
@@ -1841,13 +1841,13 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>2.31243243243248</v>
+        <v>1.797477477477511</v>
       </c>
       <c r="Y16" t="n">
-        <v>1.508108108108141</v>
+        <v>0.8987387387387569</v>
       </c>
       <c r="Z16" t="n">
-        <v>3.11675675675682</v>
+        <v>2.696216216216264</v>
       </c>
     </row>
   </sheetData>

--- a/src/analysis_examples/circadipy/results_circadipy/sine_10/cosinor_per_day_fixed_period_5_sine_10_.xlsx
+++ b/src/analysis_examples/circadipy/results_circadipy/sine_10/cosinor_per_day_fixed_period_5_sine_10_.xlsx
@@ -581,39 +581,39 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>24.27000000000035</v>
+        <v>24.31000000000036</v>
       </c>
       <c r="G2" t="n">
         <v>1</v>
       </c>
       <c r="H2" t="n">
-        <v>1.110223024625157e-16</v>
+        <v>2.176037128265307e-14</v>
       </c>
       <c r="I2" t="n">
-        <v>1.110223024625157e-16</v>
+        <v>2.176037128265307e-14</v>
       </c>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="n">
-        <v>49.45616252149362</v>
+        <v>43.69066680354734</v>
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>[43.4965329382516, 55.41579210473565]</t>
+          <t>[35.53725845612632, 51.84407515096836]</t>
         </is>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>4.529709940470639e-14</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>4.529709940470639e-14</v>
       </c>
       <c r="P2" t="n">
-        <v>1.578658170272348</v>
+        <v>1.528342372016657</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>[1.452868674633117, 1.7044476659115793]</t>
+          <t>[1.3270791789938867, 1.729605565039427]</t>
         </is>
       </c>
       <c r="R2" t="n">
@@ -623,11 +623,11 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>49.1351299803589</v>
+        <v>46.95763026185031</v>
       </c>
       <c r="U2" t="inlineStr">
         <is>
-          <t>[45.068680752881534, 53.20157920783626]</t>
+          <t>[41.61167717091162, 52.303583352789005]</t>
         </is>
       </c>
       <c r="V2" t="n">
@@ -637,13 +637,13 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>18.1721321321324</v>
+        <v>18.39675675675703</v>
       </c>
       <c r="Y2" t="n">
-        <v>17.6862462462465</v>
+        <v>17.61805805805832</v>
       </c>
       <c r="Z2" t="n">
-        <v>18.65801801801829</v>
+        <v>19.17545545545574</v>
       </c>
     </row>
     <row r="3">
@@ -667,39 +667,39 @@
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>24.27000000000035</v>
+        <v>24.31000000000036</v>
       </c>
       <c r="G3" t="n">
         <v>1</v>
       </c>
       <c r="H3" t="n">
-        <v>1.953992523340276e-14</v>
+        <v>1.110223024625157e-16</v>
       </c>
       <c r="I3" t="n">
-        <v>1.953992523340276e-14</v>
+        <v>1.110223024625157e-16</v>
       </c>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="n">
-        <v>41.53933229460298</v>
+        <v>49.08156813585799</v>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>[33.32017467636429, 49.75848991284167]</t>
+          <t>[42.28222054443907, 55.8809157272769]</t>
         </is>
       </c>
       <c r="N3" t="n">
-        <v>2.973177259946169e-13</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>2.973177259946169e-13</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>1.440289725069195</v>
+        <v>1.50318447288881</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>[1.2264475824825025, 1.6541318676558872]</t>
+          <t>[1.3648160276856558, 1.6415529180919641]</t>
         </is>
       </c>
       <c r="R3" t="n">
@@ -709,11 +709,11 @@
         <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>53.37761169473701</v>
+        <v>49.98087660133153</v>
       </c>
       <c r="U3" t="inlineStr">
         <is>
-          <t>[48.32259192553833, 58.43263146393569]</t>
+          <t>[45.554670994826374, 54.40708220783669]</t>
         </is>
       </c>
       <c r="V3" t="n">
@@ -723,13 +723,13 @@
         <v>0</v>
       </c>
       <c r="X3" t="n">
-        <v>18.70660660660688</v>
+        <v>18.49409409409437</v>
       </c>
       <c r="Y3" t="n">
-        <v>17.88060060060086</v>
+        <v>17.958738738739</v>
       </c>
       <c r="Z3" t="n">
-        <v>19.5326126126129</v>
+        <v>19.02944944944973</v>
       </c>
     </row>
     <row r="4">
@@ -753,7 +753,7 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>24.27000000000035</v>
+        <v>24.31000000000036</v>
       </c>
       <c r="G4" t="n">
         <v>1</v>
@@ -767,11 +767,11 @@
       <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
       <c r="L4" t="n">
-        <v>46.56286721140549</v>
+        <v>52.67050724622984</v>
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>[39.483302797839926, 53.64243162497105]</t>
+          <t>[45.37094907772858, 59.970065414731096]</t>
         </is>
       </c>
       <c r="N4" t="n">
@@ -781,11 +781,11 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>1.327079178993888</v>
+        <v>1.452868674633118</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>[1.1761317842268104, 1.4780265737609648]</t>
+          <t>[1.3145002294299637, 1.591237119836272]</t>
         </is>
       </c>
       <c r="R4" t="n">
@@ -795,11 +795,11 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>50.56998833380036</v>
+        <v>51.523075180436</v>
       </c>
       <c r="U4" t="inlineStr">
         <is>
-          <t>[46.352218089981385, 54.787758577619336]</t>
+          <t>[46.86428008131399, 56.181870279558]</t>
         </is>
       </c>
       <c r="V4" t="n">
@@ -809,13 +809,13 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>19.14390390390418</v>
+        <v>18.68876876876904</v>
       </c>
       <c r="Y4" t="n">
-        <v>18.56084084084111</v>
+        <v>18.15341341341368</v>
       </c>
       <c r="Z4" t="n">
-        <v>19.72696696696725</v>
+        <v>19.22412412412441</v>
       </c>
     </row>
     <row r="5">
@@ -839,53 +839,53 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>24.27000000000035</v>
+        <v>24.31000000000036</v>
       </c>
       <c r="G5" t="n">
         <v>1</v>
       </c>
       <c r="H5" t="n">
-        <v>3.254840841293571e-12</v>
+        <v>1.110223024625157e-16</v>
       </c>
       <c r="I5" t="n">
-        <v>3.254840841293571e-12</v>
+        <v>1.110223024625157e-16</v>
       </c>
       <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
       <c r="L5" t="n">
-        <v>42.65711143501091</v>
+        <v>48.845361076686</v>
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>[33.47521971929032, 51.8390031507315]</t>
+          <t>[40.03591046132574, 57.654811692046266]</t>
         </is>
       </c>
       <c r="N5" t="n">
-        <v>3.996802888650564e-12</v>
+        <v>1.465494392505207e-14</v>
       </c>
       <c r="O5" t="n">
-        <v>3.996802888650564e-12</v>
+        <v>1.465494392505207e-14</v>
       </c>
       <c r="P5" t="n">
-        <v>1.540921321580579</v>
+        <v>1.264184431174272</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>[1.2893423303021176, 1.7925003128590404]</t>
+          <t>[1.0755001877154244, 1.4528686746331188]</t>
         </is>
       </c>
       <c r="R5" t="n">
-        <v>4.440892098500626e-16</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>4.440892098500626e-16</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>50.77131705742481</v>
+        <v>54.67013986646776</v>
       </c>
       <c r="U5" t="inlineStr">
         <is>
-          <t>[44.69479351666645, 56.84784059818317]</t>
+          <t>[49.783746564161184, 59.556533168774344]</t>
         </is>
       </c>
       <c r="V5" t="n">
@@ -895,13 +895,13 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>18.31789789789817</v>
+        <v>19.41879879879908</v>
       </c>
       <c r="Y5" t="n">
-        <v>17.34612612612638</v>
+        <v>18.68876876876904</v>
       </c>
       <c r="Z5" t="n">
-        <v>19.28966966966995</v>
+        <v>20.14882882882913</v>
       </c>
     </row>
     <row r="6">
@@ -925,53 +925,53 @@
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>24.27000000000035</v>
+        <v>24.31000000000036</v>
       </c>
       <c r="G6" t="n">
         <v>1</v>
       </c>
       <c r="H6" t="n">
-        <v>2.997602166487923e-15</v>
+        <v>1.665334536937735e-15</v>
       </c>
       <c r="I6" t="n">
-        <v>2.997602166487923e-15</v>
+        <v>1.665334536937735e-15</v>
       </c>
       <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
       <c r="L6" t="n">
-        <v>49.91893646515657</v>
+        <v>48.23342361508816</v>
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>[39.87014511932515, 59.96772781098799]</t>
+          <t>[38.7995346953181, 57.66731253485821]</t>
         </is>
       </c>
       <c r="N6" t="n">
-        <v>5.113687251423471e-13</v>
+        <v>2.05835348765504e-13</v>
       </c>
       <c r="O6" t="n">
-        <v>5.113687251423471e-13</v>
+        <v>2.05835348765504e-13</v>
       </c>
       <c r="P6" t="n">
-        <v>1.276763380738194</v>
+        <v>1.264184431174272</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>[1.0629212381515014, 1.490605523324886]</t>
+          <t>[1.0503422885875793, 1.478026573760964]</t>
         </is>
       </c>
       <c r="R6" t="n">
-        <v>1.110223024625157e-15</v>
+        <v>1.554312234475219e-15</v>
       </c>
       <c r="S6" t="n">
-        <v>1.110223024625157e-15</v>
+        <v>1.554312234475219e-15</v>
       </c>
       <c r="T6" t="n">
-        <v>51.98900337015387</v>
+        <v>54.31088453107332</v>
       </c>
       <c r="U6" t="inlineStr">
         <is>
-          <t>[46.240745453265326, 57.73726128704241]</t>
+          <t>[48.84909312657008, 59.77267593557656]</t>
         </is>
       </c>
       <c r="V6" t="n">
@@ -981,13 +981,13 @@
         <v>0</v>
       </c>
       <c r="X6" t="n">
-        <v>19.33825825825854</v>
+        <v>19.41879879879908</v>
       </c>
       <c r="Y6" t="n">
-        <v>18.51225225225252</v>
+        <v>18.5914314314317</v>
       </c>
       <c r="Z6" t="n">
-        <v>20.16426426426456</v>
+        <v>20.24616616616646</v>
       </c>
     </row>
     <row r="7">
@@ -1011,53 +1011,53 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>24.27000000000035</v>
+        <v>24.31000000000036</v>
       </c>
       <c r="G7" t="n">
         <v>1</v>
       </c>
       <c r="H7" t="n">
-        <v>2.331468351712829e-15</v>
+        <v>1.110223024625157e-16</v>
       </c>
       <c r="I7" t="n">
-        <v>2.331468351712829e-15</v>
+        <v>1.110223024625157e-16</v>
       </c>
       <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
       <c r="L7" t="n">
-        <v>46.40807511581941</v>
+        <v>44.89745603102129</v>
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>[37.12401165657858, 55.692138575060234]</t>
+          <t>[36.38515008453162, 53.409761977510954]</t>
         </is>
       </c>
       <c r="N7" t="n">
-        <v>4.205524817280093e-13</v>
+        <v>7.571721027943568e-14</v>
       </c>
       <c r="O7" t="n">
-        <v>4.205524817280093e-13</v>
+        <v>7.571721027943568e-14</v>
       </c>
       <c r="P7" t="n">
-        <v>1.213868632918579</v>
+        <v>1.163552834662887</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>[0.9874475407679633, 1.440289725069194]</t>
+          <t>[0.9748685912040393, 1.3522370781217337]</t>
         </is>
       </c>
       <c r="R7" t="n">
-        <v>4.440892098500626e-14</v>
+        <v>4.440892098500626e-16</v>
       </c>
       <c r="S7" t="n">
-        <v>4.440892098500626e-14</v>
+        <v>4.440892098500626e-16</v>
       </c>
       <c r="T7" t="n">
-        <v>49.39786271517927</v>
+        <v>49.92916762498951</v>
       </c>
       <c r="U7" t="inlineStr">
         <is>
-          <t>[44.08943411276266, 54.70629131759587]</t>
+          <t>[45.332138785441344, 54.526196464537676]</t>
         </is>
       </c>
       <c r="V7" t="n">
@@ -1067,13 +1067,13 @@
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>19.58120120120149</v>
+        <v>19.80814814814844</v>
       </c>
       <c r="Y7" t="n">
-        <v>18.70660660660688</v>
+        <v>19.0781181181184</v>
       </c>
       <c r="Z7" t="n">
-        <v>20.45579579579609</v>
+        <v>20.53817817817848</v>
       </c>
     </row>
     <row r="8">
@@ -1097,53 +1097,53 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>24.27000000000035</v>
+        <v>24.31000000000036</v>
       </c>
       <c r="G8" t="n">
         <v>1</v>
       </c>
       <c r="H8" t="n">
-        <v>1.110223024625157e-16</v>
+        <v>4.440892098500626e-16</v>
       </c>
       <c r="I8" t="n">
-        <v>1.110223024625157e-16</v>
+        <v>4.440892098500626e-16</v>
       </c>
       <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
       <c r="L8" t="n">
-        <v>47.10321487864935</v>
+        <v>44.9109260604526</v>
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>[38.03817095094767, 56.168258806351034]</t>
+          <t>[35.66947472488805, 54.152377396017144]</t>
         </is>
       </c>
       <c r="N8" t="n">
-        <v>1.225686219186173e-13</v>
+        <v>1.013189532272918e-12</v>
       </c>
       <c r="O8" t="n">
-        <v>1.225686219186173e-13</v>
+        <v>1.013189532272918e-12</v>
       </c>
       <c r="P8" t="n">
-        <v>1.150973885098963</v>
+        <v>1.075500187715424</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>[0.9622896416401172, 1.3396581285578097]</t>
+          <t>[0.8616580451287321, 1.2893423303021168]</t>
         </is>
       </c>
       <c r="R8" t="n">
-        <v>4.440892098500626e-16</v>
+        <v>3.468336728928989e-13</v>
       </c>
       <c r="S8" t="n">
-        <v>4.440892098500626e-16</v>
+        <v>3.468336728928989e-13</v>
       </c>
       <c r="T8" t="n">
-        <v>51.7406319950788</v>
+        <v>51.53540117668594</v>
       </c>
       <c r="U8" t="inlineStr">
         <is>
-          <t>[46.88174949445876, 56.59951449569884]</t>
+          <t>[46.65163945299663, 56.419162900375255]</t>
         </is>
       </c>
       <c r="V8" t="n">
@@ -1153,13 +1153,13 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>19.82414414414443</v>
+        <v>20.14882882882913</v>
       </c>
       <c r="Y8" t="n">
-        <v>19.0953153153156</v>
+        <v>19.32146146146175</v>
       </c>
       <c r="Z8" t="n">
-        <v>20.55297297297327</v>
+        <v>20.97619619619651</v>
       </c>
     </row>
     <row r="9">
@@ -1183,53 +1183,53 @@
         <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>24.27000000000035</v>
+        <v>24.31000000000036</v>
       </c>
       <c r="G9" t="n">
         <v>1</v>
       </c>
       <c r="H9" t="n">
-        <v>1.110223024625157e-16</v>
+        <v>2.220446049250313e-16</v>
       </c>
       <c r="I9" t="n">
-        <v>1.110223024625157e-16</v>
+        <v>2.220446049250313e-16</v>
       </c>
       <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
       <c r="L9" t="n">
-        <v>51.85001410810579</v>
+        <v>49.33004517996568</v>
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>[42.6465982911231, 61.05342992508848]</t>
+          <t>[39.4193158496264, 59.24077451030496]</t>
         </is>
       </c>
       <c r="N9" t="n">
-        <v>8.659739592076221e-15</v>
+        <v>4.807265696626928e-13</v>
       </c>
       <c r="O9" t="n">
-        <v>8.659739592076221e-15</v>
+        <v>4.807265696626928e-13</v>
       </c>
       <c r="P9" t="n">
         <v>1.037763339023655</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>[0.8490790955648082, 1.2264475824825025]</t>
+          <t>[0.823921196436963, 1.2516054816103477]</t>
         </is>
       </c>
       <c r="R9" t="n">
-        <v>1.909583602355269e-14</v>
+        <v>1.057820497862849e-12</v>
       </c>
       <c r="S9" t="n">
-        <v>1.909583602355269e-14</v>
+        <v>1.057820497862849e-12</v>
       </c>
       <c r="T9" t="n">
-        <v>51.19863822825069</v>
+        <v>53.48627660381114</v>
       </c>
       <c r="U9" t="inlineStr">
         <is>
-          <t>[46.31017601308663, 56.087100443414755]</t>
+          <t>[48.25209809035028, 58.720455117272]</t>
         </is>
       </c>
       <c r="V9" t="n">
@@ -1239,13 +1239,13 @@
         <v>0</v>
       </c>
       <c r="X9" t="n">
-        <v>20.26144144144174</v>
+        <v>20.29483483483514</v>
       </c>
       <c r="Y9" t="n">
-        <v>19.5326126126129</v>
+        <v>19.46746746746776</v>
       </c>
       <c r="Z9" t="n">
-        <v>20.99027027027058</v>
+        <v>21.12220220220252</v>
       </c>
     </row>
     <row r="10">
@@ -1269,53 +1269,53 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>24.27000000000035</v>
+        <v>24.31000000000036</v>
       </c>
       <c r="G10" t="n">
         <v>1</v>
       </c>
       <c r="H10" t="n">
-        <v>1.110223024625157e-16</v>
+        <v>3.33066907387547e-16</v>
       </c>
       <c r="I10" t="n">
-        <v>1.110223024625157e-16</v>
+        <v>3.33066907387547e-16</v>
       </c>
       <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
       <c r="L10" t="n">
-        <v>51.32625931965478</v>
+        <v>45.86554596532643</v>
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>[41.448307180484306, 61.204211458825256]</t>
+          <t>[36.3321835754939, 55.39890835515895]</t>
         </is>
       </c>
       <c r="N10" t="n">
-        <v>1.225686219186173e-13</v>
+        <v>1.38178357644847e-12</v>
       </c>
       <c r="O10" t="n">
-        <v>1.225686219186173e-13</v>
+        <v>1.38178357644847e-12</v>
       </c>
       <c r="P10" t="n">
-        <v>1.000026490331886</v>
+        <v>0.9119738433844251</v>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
-          <t>[0.798763297309117, 1.2012896833546556]</t>
+          <t>[0.7107106503616549, 1.1132370364071953]</t>
         </is>
       </c>
       <c r="R10" t="n">
-        <v>5.078160114635466e-13</v>
+        <v>8.408163054696161e-12</v>
       </c>
       <c r="S10" t="n">
-        <v>5.078160114635466e-13</v>
+        <v>8.408163054696161e-12</v>
       </c>
       <c r="T10" t="n">
-        <v>50.02367079734859</v>
+        <v>54.76150386755359</v>
       </c>
       <c r="U10" t="inlineStr">
         <is>
-          <t>[44.88685310329981, 55.16048849139737]</t>
+          <t>[49.818202072673124, 59.70480566243405]</t>
         </is>
       </c>
       <c r="V10" t="n">
@@ -1325,13 +1325,13 @@
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>20.40720720720751</v>
+        <v>20.78152152152183</v>
       </c>
       <c r="Y10" t="n">
-        <v>19.62978978979008</v>
+        <v>20.00282282282312</v>
       </c>
       <c r="Z10" t="n">
-        <v>21.18462462462493</v>
+        <v>21.56022022022054</v>
       </c>
     </row>
     <row r="11">
@@ -1355,53 +1355,53 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>24.94000000000046</v>
+        <v>24.92000000000046</v>
       </c>
       <c r="G11" t="n">
         <v>1</v>
       </c>
       <c r="H11" t="n">
-        <v>4.440892098500626e-16</v>
+        <v>1.110223024625157e-16</v>
       </c>
       <c r="I11" t="n">
-        <v>4.440892098500626e-16</v>
+        <v>1.110223024625157e-16</v>
       </c>
       <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr"/>
       <c r="L11" t="n">
-        <v>47.44299919457604</v>
+        <v>51.58525514797885</v>
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>[37.61559040172416, 57.270407987427916]</t>
+          <t>[42.74435322375915, 60.42615707219855]</t>
         </is>
       </c>
       <c r="N11" t="n">
-        <v>1.24322774297525e-12</v>
+        <v>2.664535259100376e-15</v>
       </c>
       <c r="O11" t="n">
-        <v>1.24322774297525e-12</v>
+        <v>2.664535259100376e-15</v>
       </c>
       <c r="P11" t="n">
-        <v>0.6603948521059619</v>
+        <v>0.6478159025420389</v>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
-          <t>[0.44655270951926873, 0.8742369946926551]</t>
+          <t>[0.47171060864711567, 0.8239211964369622]</t>
         </is>
       </c>
       <c r="R11" t="n">
-        <v>1.470830182093152e-07</v>
+        <v>2.531207909939326e-09</v>
       </c>
       <c r="S11" t="n">
-        <v>1.470830182093152e-07</v>
+        <v>2.531207909939326e-09</v>
       </c>
       <c r="T11" t="n">
-        <v>47.98123999025046</v>
+        <v>51.74152630419023</v>
       </c>
       <c r="U11" t="inlineStr">
         <is>
-          <t>[42.87321647806534, 53.08926350243558]</t>
+          <t>[47.18337069826306, 56.2996819101174]</t>
         </is>
       </c>
       <c r="V11" t="n">
@@ -1411,13 +1411,13 @@
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>22.31867867867909</v>
+        <v>22.35067067067108</v>
       </c>
       <c r="Y11" t="n">
-        <v>21.46986986987027</v>
+        <v>21.65221221221261</v>
       </c>
       <c r="Z11" t="n">
-        <v>23.16748748748792</v>
+        <v>23.04912912912955</v>
       </c>
     </row>
     <row r="12">
@@ -1441,53 +1441,53 @@
         <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>24.94000000000046</v>
+        <v>24.92000000000046</v>
       </c>
       <c r="G12" t="n">
         <v>1</v>
       </c>
       <c r="H12" t="n">
-        <v>1.899591595133643e-13</v>
+        <v>2.997602166487923e-15</v>
       </c>
       <c r="I12" t="n">
-        <v>1.899591595133643e-13</v>
+        <v>2.997602166487923e-15</v>
       </c>
       <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr"/>
       <c r="L12" t="n">
-        <v>40.37679161317885</v>
+        <v>47.17121600856348</v>
       </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>[30.86147178904799, 49.892111437309715]</t>
+          <t>[37.552154712712046, 56.79027730441491]</t>
         </is>
       </c>
       <c r="N12" t="n">
-        <v>5.597300400950189e-11</v>
+        <v>7.651657085716579e-13</v>
       </c>
       <c r="O12" t="n">
-        <v>5.597300400950189e-11</v>
+        <v>7.651657085716579e-13</v>
       </c>
       <c r="P12" t="n">
-        <v>0.5094474573388856</v>
+        <v>0.3836579616996545</v>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
-          <t>[0.27044741562434726, 0.748447499053424]</t>
+          <t>[0.16981581911296306, 0.5975001042863459]</t>
         </is>
       </c>
       <c r="R12" t="n">
-        <v>9.255540258745754e-05</v>
+        <v>0.0007581990310738806</v>
       </c>
       <c r="S12" t="n">
-        <v>9.255540258745754e-05</v>
+        <v>0.0007581990310738806</v>
       </c>
       <c r="T12" t="n">
-        <v>49.76861195916099</v>
+        <v>54.09911589124631</v>
       </c>
       <c r="U12" t="inlineStr">
         <is>
-          <t>[44.61145625633606, 54.92576766198592]</t>
+          <t>[48.77710103214443, 59.4211307503482]</t>
         </is>
       </c>
       <c r="V12" t="n">
@@ -1497,13 +1497,13 @@
         <v>0</v>
       </c>
       <c r="X12" t="n">
-        <v>22.91783783783826</v>
+        <v>23.39835835835879</v>
       </c>
       <c r="Y12" t="n">
-        <v>21.96916916916958</v>
+        <v>22.55023023023065</v>
       </c>
       <c r="Z12" t="n">
-        <v>23.86650650650694</v>
+        <v>24.24648648648693</v>
       </c>
     </row>
     <row r="13">
@@ -1527,7 +1527,7 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>24.94000000000046</v>
+        <v>24.92000000000046</v>
       </c>
       <c r="G13" t="n">
         <v>1</v>
@@ -1541,39 +1541,39 @@
       <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr"/>
       <c r="L13" t="n">
-        <v>56.96462881834416</v>
+        <v>49.67914702736594</v>
       </c>
       <c r="M13" t="inlineStr">
         <is>
-          <t>[48.536351320950544, 65.39290631573778]</t>
+          <t>[41.56852566965457, 57.7897683850773]</t>
         </is>
       </c>
       <c r="N13" t="n">
-        <v>0</v>
+        <v>4.440892098500626e-16</v>
       </c>
       <c r="O13" t="n">
-        <v>0</v>
+        <v>4.440892098500626e-16</v>
       </c>
       <c r="P13" t="n">
-        <v>0.2956053147521924</v>
+        <v>0.2075526678047304</v>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
-          <t>[0.14465791998511524, 0.4465527095192696]</t>
+          <t>[0.044026323473729256, 0.37107901213573147]</t>
         </is>
       </c>
       <c r="R13" t="n">
-        <v>0.0002772963716184407</v>
+        <v>0.01402275011782139</v>
       </c>
       <c r="S13" t="n">
-        <v>0.0002772963716184407</v>
+        <v>0.01402275011782139</v>
       </c>
       <c r="T13" t="n">
-        <v>54.25401673678576</v>
+        <v>50.79612392796083</v>
       </c>
       <c r="U13" t="inlineStr">
         <is>
-          <t>[49.40118169307578, 59.10685178049575]</t>
+          <t>[46.00683144658406, 55.5854164093376]</t>
         </is>
       </c>
       <c r="V13" t="n">
@@ -1583,13 +1583,13 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>23.76664664664709</v>
+        <v>24.09681681681726</v>
       </c>
       <c r="Y13" t="n">
-        <v>23.16748748748791</v>
+        <v>23.44824824824867</v>
       </c>
       <c r="Z13" t="n">
-        <v>24.36580580580626</v>
+        <v>24.74538538538584</v>
       </c>
     </row>
     <row r="14">
@@ -1613,53 +1613,53 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>24.94000000000046</v>
+        <v>24.92000000000046</v>
       </c>
       <c r="G14" t="n">
         <v>1</v>
       </c>
       <c r="H14" t="n">
-        <v>1.110223024625157e-16</v>
+        <v>8.43769498715119e-15</v>
       </c>
       <c r="I14" t="n">
-        <v>1.110223024625157e-16</v>
+        <v>8.43769498715119e-15</v>
       </c>
       <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr"/>
       <c r="L14" t="n">
-        <v>43.33593954172179</v>
+        <v>44.93318586768051</v>
       </c>
       <c r="M14" t="inlineStr">
         <is>
-          <t>[36.87466984903015, 49.79720923441342]</t>
+          <t>[36.270040705224794, 53.596331030136234]</t>
         </is>
       </c>
       <c r="N14" t="n">
-        <v>0</v>
+        <v>1.301181384860683e-13</v>
       </c>
       <c r="O14" t="n">
-        <v>0</v>
+        <v>1.301181384860683e-13</v>
       </c>
       <c r="P14" t="n">
-        <v>-0.01257894956392303</v>
+        <v>0.1698158191129604</v>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
-          <t>[-0.17610529389492324, 0.1509473947670772]</t>
+          <t>[-0.0440263234737337, 0.3836579616996545]</t>
         </is>
       </c>
       <c r="R14" t="n">
-        <v>0.8775685323512714</v>
+        <v>0.1167224627900247</v>
       </c>
       <c r="S14" t="n">
-        <v>0.8775685323512714</v>
+        <v>0.1167224627900247</v>
       </c>
       <c r="T14" t="n">
-        <v>51.22348624123027</v>
+        <v>52.03224285454281</v>
       </c>
       <c r="U14" t="inlineStr">
         <is>
-          <t>[46.94449792143433, 55.502474561026204]</t>
+          <t>[46.81985719109304, 57.244628517992574]</t>
         </is>
       </c>
       <c r="V14" t="n">
@@ -1669,13 +1669,13 @@
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>0.04992992992993095</v>
+        <v>24.24648648648694</v>
       </c>
       <c r="Y14" t="n">
-        <v>-0.59915915915917</v>
+        <v>23.39835835835879</v>
       </c>
       <c r="Z14" t="n">
-        <v>0.6990190190190319</v>
+        <v>25.09461461461509</v>
       </c>
     </row>
     <row r="15">
@@ -1683,7 +1683,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
@@ -1699,53 +1699,53 @@
         <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>24.94000000000046</v>
+        <v>24.92000000000046</v>
       </c>
       <c r="G15" t="n">
         <v>1</v>
       </c>
       <c r="H15" t="n">
-        <v>1.110223024625157e-16</v>
+        <v>6.550315845288424e-15</v>
       </c>
       <c r="I15" t="n">
-        <v>1.110223024625157e-16</v>
+        <v>6.550315845288424e-15</v>
       </c>
       <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr"/>
       <c r="L15" t="n">
-        <v>41.38817279902644</v>
+        <v>46.43080761179824</v>
       </c>
       <c r="M15" t="inlineStr">
         <is>
-          <t>[34.10523893032896, 48.671106667723926]</t>
+          <t>[37.377750197551855, 55.48386502604463]</t>
         </is>
       </c>
       <c r="N15" t="n">
-        <v>6.439293542825908e-15</v>
+        <v>1.862954235321013e-13</v>
       </c>
       <c r="O15" t="n">
-        <v>6.439293542825908e-15</v>
+        <v>1.862954235321013e-13</v>
       </c>
       <c r="P15" t="n">
-        <v>-0.2893158399702314</v>
+        <v>-0.1886842434588463</v>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
-          <t>[-0.4780000834290776, -0.10063159651138509]</t>
+          <t>[-0.38994743648161645, 0.012578949563923914]</t>
         </is>
       </c>
       <c r="R15" t="n">
-        <v>0.003443520907480568</v>
+        <v>0.06545332432287476</v>
       </c>
       <c r="S15" t="n">
-        <v>0.003443520907480568</v>
+        <v>0.06545332432287476</v>
       </c>
       <c r="T15" t="n">
-        <v>47.73004474140032</v>
+        <v>49.6982751156484</v>
       </c>
       <c r="U15" t="inlineStr">
         <is>
-          <t>[43.55214972992714, 51.9079397528735]</t>
+          <t>[44.329772949184445, 55.066777282112355]</t>
         </is>
       </c>
       <c r="V15" t="n">
@@ -1755,13 +1755,13 @@
         <v>0</v>
       </c>
       <c r="X15" t="n">
-        <v>1.148388388388408</v>
+        <v>0.7483483483483617</v>
       </c>
       <c r="Y15" t="n">
-        <v>0.3994394394394463</v>
+        <v>-0.04988988988989373</v>
       </c>
       <c r="Z15" t="n">
-        <v>1.89733733733737</v>
+        <v>1.546586586586617</v>
       </c>
     </row>
     <row r="16">
@@ -1785,53 +1785,53 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>24.94000000000046</v>
+        <v>24.92000000000046</v>
       </c>
       <c r="G16" t="n">
         <v>1</v>
       </c>
       <c r="H16" t="n">
-        <v>1.676436767183986e-14</v>
+        <v>1.110223024625157e-16</v>
       </c>
       <c r="I16" t="n">
-        <v>1.676436767183986e-14</v>
+        <v>1.110223024625157e-16</v>
       </c>
       <c r="J16" t="inlineStr"/>
       <c r="K16" t="inlineStr"/>
       <c r="L16" t="n">
-        <v>44.16957621778285</v>
+        <v>42.18703586118589</v>
       </c>
       <c r="M16" t="inlineStr">
         <is>
-          <t>[34.466673463934825, 53.87247897163087]</t>
+          <t>[33.67548998728826, 50.69858173508352]</t>
         </is>
       </c>
       <c r="N16" t="n">
-        <v>7.335243523698409e-12</v>
+        <v>5.488942633746774e-13</v>
       </c>
       <c r="O16" t="n">
-        <v>7.335243523698409e-12</v>
+        <v>5.488942633746774e-13</v>
       </c>
       <c r="P16" t="n">
-        <v>-0.4528421843012316</v>
+        <v>-0.6037895790683088</v>
       </c>
       <c r="Q16" t="inlineStr">
         <is>
-          <t>[-0.6792632764518469, -0.22642109215061623]</t>
+          <t>[-0.8176317216550011, -0.38994743648161645]</t>
         </is>
       </c>
       <c r="R16" t="n">
-        <v>0.0002136444856204456</v>
+        <v>9.084635730349788e-07</v>
       </c>
       <c r="S16" t="n">
-        <v>0.0002136444856204456</v>
+        <v>9.084635730349788e-07</v>
       </c>
       <c r="T16" t="n">
-        <v>47.72517240685444</v>
+        <v>50.82934571632541</v>
       </c>
       <c r="U16" t="inlineStr">
         <is>
-          <t>[42.427389312287374, 53.02295550142151]</t>
+          <t>[46.4165115918472, 55.242179840803615]</t>
         </is>
       </c>
       <c r="V16" t="n">
@@ -1841,13 +1841,13 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>1.797477477477511</v>
+        <v>2.394714714714759</v>
       </c>
       <c r="Y16" t="n">
-        <v>0.8987387387387569</v>
+        <v>1.546586586586617</v>
       </c>
       <c r="Z16" t="n">
-        <v>2.696216216216264</v>
+        <v>3.242842842842901</v>
       </c>
     </row>
   </sheetData>
